--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2144.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2144.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.812105028822921</v>
+        <v>0.6579528450965881</v>
       </c>
       <c r="B1">
-        <v>4.020249825075272</v>
+        <v>1.493727684020996</v>
       </c>
       <c r="C1">
-        <v>2.415651668642729</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.8656857538212192</v>
+        <v>2.10013484954834</v>
       </c>
       <c r="E1">
-        <v>0.5796867638234289</v>
+        <v>1.294928789138794</v>
       </c>
     </row>
   </sheetData>
